--- a/DataSMILE.xlsx
+++ b/DataSMILE.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kan\Documents\GitHub\SMILE_to_Feature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\GitHub\SMILE_to_Feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE76B33-32D1-4001-8DBC-B84F80AC17F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D3345A-A783-40C8-8CF2-3FA0AB9E45E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6D5665C4-529B-4429-B42D-8CC1137EC6F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6D5665C4-529B-4429-B42D-8CC1137EC6F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="All_SMILE" sheetId="2" r:id="rId2"/>
+    <sheet name="2_SMILE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11571" uniqueCount="4209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11577" uniqueCount="4209">
   <si>
     <t>CAS</t>
   </si>
@@ -12670,7 +12671,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12714,8 +12715,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12728,8 +12738,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -12737,11 +12759,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12789,11 +12837,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12805,33 +12859,14 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="-0.249977111117893"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -12869,6 +12904,35 @@
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -12883,15 +12947,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{919A9BAF-2E3D-49C5-ADC6-D58C9E1C2660}" name="Table1" displayName="Table1" ref="A1:F561" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{919A9BAF-2E3D-49C5-ADC6-D58C9E1C2660}" name="Table1" displayName="Table1" ref="A1:F561" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:F561" xr:uid="{919A9BAF-2E3D-49C5-ADC6-D58C9E1C2660}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{53CFCC9E-9105-4D7E-8D84-68A4D6C84E9B}" name="CAS" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{251BCA35-6D94-4195-AC8C-973E42FBB870}" name="Name" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{FCD45F5B-9361-4195-B827-8881BD39DCE4}" name="Type" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{28B86CF3-D191-4438-8AB7-58D41694B8F4}" name="SMILES" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{C10269ED-5455-4C53-9665-B4FEFA6EFFAD}" name="Formular" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{AB3F4C9A-2096-48EC-A0F1-46BF859B9424}" name="is_dulpilcate" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{53CFCC9E-9105-4D7E-8D84-68A4D6C84E9B}" name="CAS" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{251BCA35-6D94-4195-AC8C-973E42FBB870}" name="Name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{FCD45F5B-9361-4195-B827-8881BD39DCE4}" name="Type" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{28B86CF3-D191-4438-8AB7-58D41694B8F4}" name="SMILES" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C10269ED-5455-4C53-9665-B4FEFA6EFFAD}" name="Formular" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{AB3F4C9A-2096-48EC-A0F1-46BF859B9424}" name="is_dulpilcate" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13235,16 +13299,16 @@
       <selection activeCell="O2" sqref="O2:O741"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5546875" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="57.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -40766,14 +40830,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE3D598-B5B3-4550-AA2C-EE5074E4424F}">
   <dimension ref="B1:C1654"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="46.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -54010,11 +54074,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C1654">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F002B540-E005-4A55-A3BD-1E9285F869BB}">
+  <dimension ref="C1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:4">
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" s="19" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3" s="21" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:D3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>